--- a/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e_vs._vvenc.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e_vs._vvenc.xlsx
@@ -434,7 +434,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="30"/>
+          <min val="29"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -854,7 +854,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="28"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1064,7 +1064,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="27"/>
+          <min val="26"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1274,7 +1274,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="24"/>
+          <min val="21"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1484,7 +1484,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="26"/>
+          <min val="24"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1694,7 +1694,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="27"/>
+          <min val="25"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1904,7 +1904,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="24"/>
+          <min val="23"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -2114,7 +2114,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="23"/>
+          <min val="22"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -2324,7 +2324,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="26"/>
+          <min val="24"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3374,7 +3374,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="27"/>
+          <min val="26"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3584,7 +3584,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="26"/>
+          <min val="25"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3794,7 +3794,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="24"/>
+          <min val="20"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -4214,7 +4214,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="32"/>
+          <min val="31"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -4634,7 +4634,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="26"/>
+          <min val="23"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -4844,7 +4844,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="29"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -5054,7 +5054,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="29"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -5264,7 +5264,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="27"/>
+          <min val="26"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -5474,7 +5474,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="28"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -6550,22 +6550,22 @@
         <v>81.861</v>
       </c>
       <c r="O2" t="n">
-        <v>-88.3</v>
+        <v>-90</v>
       </c>
       <c r="P2" t="n">
         <v>-88.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.051</v>
+        <v>-0.178</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.434</v>
+        <v>-0.52</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.076</v>
+        <v>-0.197</v>
       </c>
       <c r="T2" t="n">
-        <v>6492.315</v>
+        <v>5140.418</v>
       </c>
     </row>
     <row r="3">
@@ -6614,22 +6614,22 @@
         <v>128.82</v>
       </c>
       <c r="O3" t="n">
-        <v>-70.40000000000001</v>
+        <v>-72.2</v>
       </c>
       <c r="P3" t="n">
-        <v>-70.3</v>
+        <v>-72.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.821</v>
+        <v>0.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.306</v>
+        <v>1.483</v>
       </c>
       <c r="S3" t="n">
-        <v>2.323</v>
+        <v>1.482</v>
       </c>
       <c r="T3" t="n">
-        <v>7483.393</v>
+        <v>6205.851</v>
       </c>
     </row>
     <row r="4">
@@ -6678,22 +6678,22 @@
         <v>99.21899999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>-63.2</v>
+        <v>-65.8</v>
       </c>
       <c r="P4" t="n">
-        <v>-63.2</v>
+        <v>-65.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.011</v>
+        <v>-1.221</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.344</v>
+        <v>-1.302</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.722</v>
+        <v>-1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>6357.196999999999</v>
+        <v>6195.101</v>
       </c>
     </row>
     <row r="5">
@@ -6742,22 +6742,22 @@
         <v>-32.747</v>
       </c>
       <c r="O5" t="n">
-        <v>-77.40000000000001</v>
+        <v>-79.3</v>
       </c>
       <c r="P5" t="n">
-        <v>-77.5</v>
+        <v>-80.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.355</v>
+        <v>-0.292</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.272</v>
+        <v>-0.855</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.166</v>
+        <v>-0.7140000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>5052.971</v>
+        <v>4852.535</v>
       </c>
     </row>
     <row r="6">
@@ -6806,22 +6806,22 @@
         <v>252.791</v>
       </c>
       <c r="O6" t="n">
-        <v>-47</v>
+        <v>-46.9</v>
       </c>
       <c r="P6" t="n">
         <v>-47.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.745</v>
+        <v>-3.186</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.73</v>
+        <v>-1.307</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3720000000000001</v>
+        <v>-0.855</v>
       </c>
       <c r="T6" t="n">
-        <v>8616.527</v>
+        <v>8455.834000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6870,22 +6870,22 @@
         <v>167.609</v>
       </c>
       <c r="O7" t="n">
-        <v>-67.7</v>
+        <v>-67.90000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>-67.7</v>
+        <v>-67.90000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.495</v>
+        <v>-0.7829999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>0.272</v>
+        <v>-0.254</v>
       </c>
       <c r="S7" t="n">
-        <v>0.297</v>
+        <v>-0.242</v>
       </c>
       <c r="T7" t="n">
-        <v>6138.528</v>
+        <v>6090.721</v>
       </c>
     </row>
     <row r="8">
@@ -6934,22 +6934,22 @@
         <v>220.558</v>
       </c>
       <c r="O8" t="n">
-        <v>-70.2</v>
+        <v>-71.09999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>-70.2</v>
+        <v>-71.09999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.055</v>
+        <v>-0.9640000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.116</v>
+        <v>-0.496</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.272</v>
+        <v>-1.114</v>
       </c>
       <c r="T8" t="n">
-        <v>9174.236999999999</v>
+        <v>8969.853999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6998,22 +6998,22 @@
         <v>228.203</v>
       </c>
       <c r="O9" t="n">
-        <v>-76.40000000000001</v>
+        <v>-76.5</v>
       </c>
       <c r="P9" t="n">
-        <v>-76.2</v>
+        <v>-76.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.176</v>
+        <v>-0.7829999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>0.274</v>
+        <v>-0.196</v>
       </c>
       <c r="S9" t="n">
-        <v>0.486</v>
+        <v>0.068</v>
       </c>
       <c r="T9" t="n">
-        <v>6065.857</v>
+        <v>5919.025</v>
       </c>
     </row>
     <row r="10">
@@ -7062,22 +7062,22 @@
         <v>214.199</v>
       </c>
       <c r="O10" t="n">
-        <v>-64.09999999999999</v>
+        <v>-64</v>
       </c>
       <c r="P10" t="n">
-        <v>-64.09999999999999</v>
+        <v>-64.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.142</v>
+        <v>-0.912</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005</v>
+        <v>-0.466</v>
       </c>
       <c r="S10" t="n">
-        <v>0.322</v>
+        <v>-0.403</v>
       </c>
       <c r="T10" t="n">
-        <v>8413.870999999999</v>
+        <v>8241.829</v>
       </c>
     </row>
     <row r="11">
@@ -7126,22 +7126,22 @@
         <v>156.45</v>
       </c>
       <c r="O11" t="n">
-        <v>-65.5</v>
+        <v>-67.5</v>
       </c>
       <c r="P11" t="n">
-        <v>-65.40000000000001</v>
+        <v>-67.40000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.452</v>
+        <v>0.284</v>
       </c>
       <c r="R11" t="n">
-        <v>0.584</v>
+        <v>0.051</v>
       </c>
       <c r="S11" t="n">
-        <v>0.76</v>
+        <v>0.284</v>
       </c>
       <c r="T11" t="n">
-        <v>8721.700000000001</v>
+        <v>8394.101999999999</v>
       </c>
     </row>
     <row r="12">
@@ -7190,22 +7190,22 @@
         <v>237.367</v>
       </c>
       <c r="O12" t="n">
-        <v>-65</v>
+        <v>-66.7</v>
       </c>
       <c r="P12" t="n">
-        <v>-65</v>
+        <v>-66.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.797</v>
+        <v>-0.314</v>
       </c>
       <c r="R12" t="n">
-        <v>0.857</v>
+        <v>0.262</v>
       </c>
       <c r="S12" t="n">
-        <v>0.613</v>
+        <v>0.177</v>
       </c>
       <c r="T12" t="n">
-        <v>8207.041999999999</v>
+        <v>7889.888000000001</v>
       </c>
     </row>
     <row r="13">
@@ -7254,22 +7254,22 @@
         <v>300.923</v>
       </c>
       <c r="O13" t="n">
-        <v>-66.59999999999999</v>
+        <v>-66.8</v>
       </c>
       <c r="P13" t="n">
-        <v>-66.59999999999999</v>
+        <v>-66.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.292</v>
+        <v>0.063</v>
       </c>
       <c r="R13" t="n">
-        <v>1.293</v>
+        <v>0.418</v>
       </c>
       <c r="S13" t="n">
-        <v>1.447</v>
+        <v>0.439</v>
       </c>
       <c r="T13" t="n">
-        <v>13000.314</v>
+        <v>12199.934</v>
       </c>
     </row>
     <row r="14">
@@ -7318,22 +7318,22 @@
         <v>268.338</v>
       </c>
       <c r="O14" t="n">
-        <v>-62</v>
+        <v>-62.8</v>
       </c>
       <c r="P14" t="n">
-        <v>-61.9</v>
+        <v>-62.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6850000000000001</v>
+        <v>-0.617</v>
       </c>
       <c r="R14" t="n">
-        <v>0.728</v>
+        <v>-0.063</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8109999999999999</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="T14" t="n">
-        <v>9501.517</v>
+        <v>9357.780000000001</v>
       </c>
     </row>
     <row r="15">
@@ -7382,22 +7382,22 @@
         <v>340.925</v>
       </c>
       <c r="O15" t="n">
-        <v>-64.3</v>
+        <v>-64.2</v>
       </c>
       <c r="P15" t="n">
         <v>-64.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.341</v>
+        <v>-1.611</v>
       </c>
       <c r="R15" t="n">
-        <v>0.141</v>
+        <v>-0.5670000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>0.228</v>
+        <v>-0.515</v>
       </c>
       <c r="T15" t="n">
-        <v>10563.821</v>
+        <v>10206.772</v>
       </c>
     </row>
     <row r="16">
@@ -7446,22 +7446,22 @@
         <v>306.265</v>
       </c>
       <c r="O16" t="n">
-        <v>-51.4</v>
+        <v>-51</v>
       </c>
       <c r="P16" t="n">
-        <v>-51.3</v>
+        <v>-51.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.648</v>
+        <v>-1.826</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.177</v>
+        <v>-0.9279999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.9470000000000001</v>
       </c>
       <c r="T16" t="n">
-        <v>12406.691</v>
+        <v>11993.848</v>
       </c>
     </row>
     <row r="17">
@@ -7510,22 +7510,22 @@
         <v>342.089</v>
       </c>
       <c r="O17" t="n">
-        <v>-51.3</v>
+        <v>-51.8</v>
       </c>
       <c r="P17" t="n">
-        <v>-51.3</v>
+        <v>-51.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.833</v>
+        <v>-0.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.152</v>
+        <v>0.7709999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>0.649</v>
+        <v>0.092</v>
       </c>
       <c r="T17" t="n">
-        <v>13862.013</v>
+        <v>13581.325</v>
       </c>
     </row>
     <row r="18">
@@ -7574,22 +7574,22 @@
         <v>458.816</v>
       </c>
       <c r="O18" t="n">
-        <v>-58.8</v>
+        <v>-59.3</v>
       </c>
       <c r="P18" t="n">
-        <v>-58.8</v>
+        <v>-59.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8079999999999999</v>
+        <v>-0.488</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9470000000000001</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="S18" t="n">
-        <v>1.286</v>
+        <v>0.8690000000000001</v>
       </c>
       <c r="T18" t="n">
-        <v>11928.592</v>
+        <v>11534.816</v>
       </c>
     </row>
     <row r="19">
@@ -7638,22 +7638,22 @@
         <v>391.59</v>
       </c>
       <c r="O19" t="n">
-        <v>-70.8</v>
+        <v>-70.09999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>-70.8</v>
+        <v>-70</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.605</v>
+        <v>-0.713</v>
       </c>
       <c r="R19" t="n">
-        <v>0.598</v>
+        <v>0.446</v>
       </c>
       <c r="S19" t="n">
-        <v>1.057</v>
+        <v>0.792</v>
       </c>
       <c r="T19" t="n">
-        <v>8186.705</v>
+        <v>8088.306</v>
       </c>
     </row>
     <row r="20">
@@ -7702,22 +7702,22 @@
         <v>459.688</v>
       </c>
       <c r="O20" t="n">
-        <v>-47.4</v>
+        <v>-47.3</v>
       </c>
       <c r="P20" t="n">
         <v>-47.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.253</v>
+        <v>-1.042</v>
       </c>
       <c r="R20" t="n">
-        <v>0.629</v>
+        <v>-0.278</v>
       </c>
       <c r="S20" t="n">
-        <v>0.728</v>
+        <v>-0.238</v>
       </c>
       <c r="T20" t="n">
-        <v>13398.025</v>
+        <v>12946.175</v>
       </c>
     </row>
     <row r="21">
@@ -7766,22 +7766,22 @@
         <v>158.094</v>
       </c>
       <c r="O21" t="n">
-        <v>-56.9</v>
+        <v>-56.8</v>
       </c>
       <c r="P21" t="n">
         <v>-56.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.168</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>0.894</v>
       </c>
       <c r="S21" t="n">
-        <v>2.061</v>
+        <v>1.186</v>
       </c>
       <c r="T21" t="n">
-        <v>6987.704000000001</v>
+        <v>7016.235</v>
       </c>
     </row>
     <row r="22">
@@ -7830,22 +7830,22 @@
         <v>126.228</v>
       </c>
       <c r="O22" t="n">
-        <v>-69.40000000000001</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>-68.5</v>
+        <v>-68.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.799</v>
+        <v>1.844</v>
       </c>
       <c r="R22" t="n">
-        <v>2.413</v>
+        <v>1.603</v>
       </c>
       <c r="S22" t="n">
-        <v>2.85</v>
+        <v>2.077</v>
       </c>
       <c r="T22" t="n">
-        <v>5690.507</v>
+        <v>5694.844</v>
       </c>
     </row>
     <row r="23">
@@ -7894,22 +7894,22 @@
         <v>132.676</v>
       </c>
       <c r="O23" t="n">
-        <v>-60.3</v>
+        <v>-61.3</v>
       </c>
       <c r="P23" t="n">
-        <v>-59.8</v>
+        <v>-61</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.43</v>
+        <v>1.356</v>
       </c>
       <c r="R23" t="n">
-        <v>2.225</v>
+        <v>1.431</v>
       </c>
       <c r="S23" t="n">
-        <v>2.619</v>
+        <v>1.794</v>
       </c>
       <c r="T23" t="n">
-        <v>7069.148</v>
+        <v>6998.619000000001</v>
       </c>
     </row>
     <row r="24">
@@ -7958,22 +7958,22 @@
         <v>310.995</v>
       </c>
       <c r="O24" t="n">
-        <v>-66.3</v>
+        <v>-66.5</v>
       </c>
       <c r="P24" t="n">
-        <v>-66.3</v>
+        <v>-66.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.991</v>
+        <v>-0.309</v>
       </c>
       <c r="R24" t="n">
-        <v>1.074</v>
+        <v>0.142</v>
       </c>
       <c r="S24" t="n">
-        <v>1.142</v>
+        <v>0.112</v>
       </c>
       <c r="T24" t="n">
-        <v>12232.564</v>
+        <v>11795.204</v>
       </c>
     </row>
     <row r="25">
@@ -8022,22 +8022,22 @@
         <v>89.589</v>
       </c>
       <c r="O25" t="n">
-        <v>-49.1</v>
+        <v>-48.8</v>
       </c>
       <c r="P25" t="n">
-        <v>-49.1</v>
+        <v>-48.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.768</v>
+        <v>-2.087</v>
       </c>
       <c r="R25" t="n">
-        <v>0.492</v>
+        <v>-0.4</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.216</v>
+        <v>-1.07</v>
       </c>
       <c r="T25" t="n">
-        <v>11064.736</v>
+        <v>10269.465</v>
       </c>
     </row>
     <row r="26">
@@ -8086,22 +8086,22 @@
         <v>283.48</v>
       </c>
       <c r="O26" t="n">
-        <v>-19.3</v>
+        <v>-18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>-19.2</v>
+        <v>-18.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>-2.164</v>
+        <v>-4.418</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.647</v>
+        <v>-2.377</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.5529999999999999</v>
+        <v>-1.455</v>
       </c>
       <c r="T26" t="n">
-        <v>8596.57</v>
+        <v>8456.610999999999</v>
       </c>
     </row>
     <row r="27">
@@ -8150,22 +8150,22 @@
         <v>267.006</v>
       </c>
       <c r="O27" t="n">
-        <v>-63.7</v>
+        <v>-64.3</v>
       </c>
       <c r="P27" t="n">
-        <v>-63.7</v>
+        <v>-64.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.261</v>
+        <v>0.721</v>
       </c>
       <c r="R27" t="n">
-        <v>3.307</v>
+        <v>2.17</v>
       </c>
       <c r="S27" t="n">
-        <v>3.568</v>
+        <v>2.558</v>
       </c>
       <c r="T27" t="n">
-        <v>7649.35</v>
+        <v>7484.695</v>
       </c>
     </row>
     <row r="28">
@@ -8214,22 +8214,22 @@
         <v>230.424</v>
       </c>
       <c r="O28" t="n">
-        <v>-62</v>
+        <v>-62.6</v>
       </c>
       <c r="P28" t="n">
-        <v>-62</v>
+        <v>-62.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.57</v>
+        <v>-0.629</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6729999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="S28" t="n">
-        <v>0.799</v>
+        <v>0.09</v>
       </c>
       <c r="T28" t="n">
-        <v>8956.226999999999</v>
+        <v>8614.607</v>
       </c>
     </row>
   </sheetData>
@@ -17218,7 +17218,7 @@
         <v>39.555</v>
       </c>
       <c r="H2" t="n">
-        <v>19766.7</v>
+        <v>19766</v>
       </c>
     </row>
     <row r="3">
@@ -17227,26 +17227,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beauty_3840x2160_50_600_qp30(anchor)</t>
+          <t>Beauty_3840x2160_50_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>600</v>
       </c>
       <c r="D3" t="n">
-        <v>2619.2256</v>
+        <v>1362.2948</v>
       </c>
       <c r="E3" t="n">
-        <v>34.8701</v>
+        <v>34.7594</v>
       </c>
       <c r="F3" t="n">
-        <v>37.0897</v>
+        <v>37.0442</v>
       </c>
       <c r="G3" t="n">
-        <v>39.4449</v>
+        <v>39.384</v>
       </c>
       <c r="H3" t="n">
-        <v>11117.2</v>
+        <v>8147.2</v>
       </c>
     </row>
     <row r="4">
@@ -17255,26 +17255,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beauty_3840x2160_50_600_qp35(anchor)</t>
+          <t>Beauty_3840x2160_50_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>600</v>
       </c>
       <c r="D4" t="n">
-        <v>676.8052</v>
+        <v>433.0568</v>
       </c>
       <c r="E4" t="n">
-        <v>34.5738</v>
+        <v>34.3418</v>
       </c>
       <c r="F4" t="n">
-        <v>36.9743</v>
+        <v>36.8665</v>
       </c>
       <c r="G4" t="n">
-        <v>39.2604</v>
+        <v>39.0879</v>
       </c>
       <c r="H4" t="n">
-        <v>5400.62</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="5">
@@ -17283,26 +17283,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beauty_3840x2160_50_600_qp40(anchor)</t>
+          <t>Beauty_3840x2160_50_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>600</v>
       </c>
       <c r="D5" t="n">
-        <v>335.6828</v>
+        <v>177.4424</v>
       </c>
       <c r="E5" t="n">
-        <v>34.1721</v>
+        <v>33.5978</v>
       </c>
       <c r="F5" t="n">
-        <v>36.7694</v>
+        <v>36.5762</v>
       </c>
       <c r="G5" t="n">
-        <v>38.9497</v>
+        <v>38.6992</v>
       </c>
       <c r="H5" t="n">
-        <v>3176.75</v>
+        <v>1933.41</v>
       </c>
     </row>
     <row r="6">
@@ -17330,7 +17330,7 @@
         <v>48.3015</v>
       </c>
       <c r="H6" t="n">
-        <v>4237.75</v>
+        <v>4230.21</v>
       </c>
     </row>
     <row r="7">
@@ -17339,26 +17339,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chimei-inn_3840x2160_50_317_qp30(anchor)</t>
+          <t>Chimei-inn_3840x2160_50_317_qp32(anchor)</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>317</v>
       </c>
       <c r="D7" t="n">
-        <v>2507.5336</v>
+        <v>1863.7802</v>
       </c>
       <c r="E7" t="n">
-        <v>41.5334</v>
+        <v>40.4886</v>
       </c>
       <c r="F7" t="n">
-        <v>46.9457</v>
+        <v>46.2293</v>
       </c>
       <c r="G7" t="n">
-        <v>47.1342</v>
+        <v>46.3736</v>
       </c>
       <c r="H7" t="n">
-        <v>3220.34</v>
+        <v>2690.59</v>
       </c>
     </row>
     <row r="8">
@@ -17367,26 +17367,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chimei-inn_3840x2160_50_317_qp35(anchor)</t>
+          <t>Chimei-inn_3840x2160_50_317_qp38(anchor)</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>317</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.9136</v>
+        <v>821.7705999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>38.7815</v>
+        <v>37.0947</v>
       </c>
       <c r="F8" t="n">
-        <v>45.1989</v>
+        <v>44.0185</v>
       </c>
       <c r="G8" t="n">
-        <v>45.299</v>
+        <v>44.0624</v>
       </c>
       <c r="H8" t="n">
-        <v>2208.14</v>
+        <v>1758.94</v>
       </c>
     </row>
     <row r="9">
@@ -17395,26 +17395,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chimei-inn_3840x2160_50_317_qp40(anchor)</t>
+          <t>Chimei-inn_3840x2160_50_317_qp45(anchor)</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>317</v>
       </c>
       <c r="D9" t="n">
-        <v>656.1327</v>
+        <v>371.76</v>
       </c>
       <c r="E9" t="n">
-        <v>36.5495</v>
+        <v>34.9137</v>
       </c>
       <c r="F9" t="n">
-        <v>43.3018</v>
+        <v>41.9079</v>
       </c>
       <c r="G9" t="n">
-        <v>43.3156</v>
+        <v>41.9515</v>
       </c>
       <c r="H9" t="n">
-        <v>1524.36</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10">
@@ -17442,7 +17442,7 @@
         <v>46.6411</v>
       </c>
       <c r="H10" t="n">
-        <v>4414.22</v>
+        <v>4937.09</v>
       </c>
     </row>
     <row r="11">
@@ -17451,26 +17451,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Girlhood_3840x2160_50_235_qp30(anchor)</t>
+          <t>Girlhood_3840x2160_50_235_qp32(anchor)</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>235</v>
       </c>
       <c r="D11" t="n">
-        <v>5603.4934</v>
+        <v>4165.4431</v>
       </c>
       <c r="E11" t="n">
-        <v>40.9719</v>
+        <v>39.8667</v>
       </c>
       <c r="F11" t="n">
-        <v>46.1516</v>
+        <v>45.159</v>
       </c>
       <c r="G11" t="n">
-        <v>45.1148</v>
+        <v>44.0336</v>
       </c>
       <c r="H11" t="n">
-        <v>3451.2</v>
+        <v>3396.37</v>
       </c>
     </row>
     <row r="12">
@@ -17479,26 +17479,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Girlhood_3840x2160_50_235_qp35(anchor)</t>
+          <t>Girlhood_3840x2160_50_235_qp38(anchor)</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>235</v>
       </c>
       <c r="D12" t="n">
-        <v>2736.7261</v>
+        <v>1892.7105</v>
       </c>
       <c r="E12" t="n">
-        <v>38.2598</v>
+        <v>36.778</v>
       </c>
       <c r="F12" t="n">
-        <v>43.6027</v>
+        <v>42.1689</v>
       </c>
       <c r="G12" t="n">
-        <v>42.3891</v>
+        <v>40.8355</v>
       </c>
       <c r="H12" t="n">
-        <v>2422.45</v>
+        <v>2310.35</v>
       </c>
     </row>
     <row r="13">
@@ -17507,26 +17507,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Girlhood_3840x2160_50_235_qp40(anchor)</t>
+          <t>Girlhood_3840x2160_50_235_qp45(anchor)</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>235</v>
       </c>
       <c r="D13" t="n">
-        <v>1513.7137</v>
+        <v>859.0826</v>
       </c>
       <c r="E13" t="n">
-        <v>35.9802</v>
+        <v>33.6366</v>
       </c>
       <c r="F13" t="n">
-        <v>41.2669</v>
+        <v>39.8609</v>
       </c>
       <c r="G13" t="n">
-        <v>39.9136</v>
+        <v>38.4387</v>
       </c>
       <c r="H13" t="n">
-        <v>1740.35</v>
+        <v>1491.59</v>
       </c>
     </row>
     <row r="14">
@@ -17535,7 +17535,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>﻿RaceNight_3840x2160_50_235_qp27(anchor)</t>
+          <t>﻿RaceNight_3840x2160_50_600_qp27(anchor)</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -17554,7 +17554,7 @@
         <v>43.5394</v>
       </c>
       <c r="H14" t="n">
-        <v>10575.6</v>
+        <v>12172.2</v>
       </c>
     </row>
     <row r="15">
@@ -17563,26 +17563,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RaceNight_3840x2160_50_235_qp30(anchor)</t>
+          <t>RaceNight_3840x2160_50_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>600</v>
       </c>
       <c r="D15" t="n">
-        <v>3066.7232</v>
+        <v>2079.6952</v>
       </c>
       <c r="E15" t="n">
-        <v>36.0073</v>
+        <v>35.6095</v>
       </c>
       <c r="F15" t="n">
-        <v>43.2201</v>
+        <v>42.6679</v>
       </c>
       <c r="G15" t="n">
-        <v>42.9273</v>
+        <v>42.4169</v>
       </c>
       <c r="H15" t="n">
-        <v>7629.61</v>
+        <v>7129.67</v>
       </c>
     </row>
     <row r="16">
@@ -17591,26 +17591,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RaceNight_3840x2160_50_235_qp35(anchor)</t>
+          <t>RaceNight_3840x2160_50_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>600</v>
       </c>
       <c r="D16" t="n">
-        <v>1398.3456</v>
+        <v>963.3144</v>
       </c>
       <c r="E16" t="n">
-        <v>34.8714</v>
+        <v>33.9919</v>
       </c>
       <c r="F16" t="n">
-        <v>41.6425</v>
+        <v>40.6499</v>
       </c>
       <c r="G16" t="n">
-        <v>41.4657</v>
+        <v>40.5258</v>
       </c>
       <c r="H16" t="n">
-        <v>4686.68</v>
+        <v>4390.52</v>
       </c>
     </row>
     <row r="17">
@@ -17619,26 +17619,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RaceNight_3840x2160_50_235_qp40(anchor)</t>
+          <t>RaceNight_3840x2160_50_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>600</v>
       </c>
       <c r="D17" t="n">
-        <v>796.4208</v>
+        <v>495.6324</v>
       </c>
       <c r="E17" t="n">
-        <v>33.5364</v>
+        <v>32.2245</v>
       </c>
       <c r="F17" t="n">
-        <v>40.1136</v>
+        <v>39.3274</v>
       </c>
       <c r="G17" t="n">
-        <v>40.0301</v>
+        <v>39.2863</v>
       </c>
       <c r="H17" t="n">
-        <v>3138.29</v>
+        <v>2426.57</v>
       </c>
     </row>
     <row r="18">
@@ -17666,7 +17666,7 @@
         <v>42.8634</v>
       </c>
       <c r="H18" t="n">
-        <v>1857.34</v>
+        <v>2132.62</v>
       </c>
     </row>
     <row r="19">
@@ -17675,26 +17675,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp30(anchor)</t>
+          <t>PeopleOnStreet_2560x1600_30_crop_150_qp32(anchor)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>150</v>
       </c>
       <c r="D19" t="n">
-        <v>7376.712</v>
+        <v>5685.5024</v>
       </c>
       <c r="E19" t="n">
-        <v>34.195</v>
+        <v>32.9358</v>
       </c>
       <c r="F19" t="n">
-        <v>41.2266</v>
+        <v>40.575</v>
       </c>
       <c r="G19" t="n">
-        <v>41.9834</v>
+        <v>41.5138</v>
       </c>
       <c r="H19" t="n">
-        <v>1507.81</v>
+        <v>1500.72</v>
       </c>
     </row>
     <row r="20">
@@ -17703,26 +17703,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp35(anchor)</t>
+          <t>PeopleOnStreet_2560x1600_30_crop_150_qp38(anchor)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>150</v>
       </c>
       <c r="D20" t="n">
-        <v>3820.6128</v>
+        <v>2596.256</v>
       </c>
       <c r="E20" t="n">
-        <v>30.9957</v>
+        <v>29.1863</v>
       </c>
       <c r="F20" t="n">
-        <v>39.4002</v>
+        <v>38.5121</v>
       </c>
       <c r="G20" t="n">
-        <v>40.5784</v>
+        <v>39.8163</v>
       </c>
       <c r="H20" t="n">
-        <v>1044.79</v>
+        <v>984.795</v>
       </c>
     </row>
     <row r="21">
@@ -17731,26 +17731,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp40(anchor)</t>
+          <t>PeopleOnStreet_2560x1600_30_crop_150_qp45(anchor)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>150</v>
       </c>
       <c r="D21" t="n">
-        <v>2007.968</v>
+        <v>985.2864</v>
       </c>
       <c r="E21" t="n">
-        <v>28.1015</v>
+        <v>25.4082</v>
       </c>
       <c r="F21" t="n">
-        <v>37.8187</v>
+        <v>37.0511</v>
       </c>
       <c r="G21" t="n">
-        <v>39.2527</v>
+        <v>38.5518</v>
       </c>
       <c r="H21" t="n">
-        <v>740.2719999999999</v>
+        <v>617.099</v>
       </c>
     </row>
     <row r="22">
@@ -17778,7 +17778,7 @@
         <v>42.2964</v>
       </c>
       <c r="H22" t="n">
-        <v>855.8919999999999</v>
+        <v>982.26</v>
       </c>
     </row>
     <row r="23">
@@ -17787,26 +17787,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Traffic_2560x1600_30_crop_150_qp30(anchor)</t>
+          <t>Traffic_2560x1600_30_crop_150_qp32(anchor)</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>150</v>
       </c>
       <c r="D23" t="n">
-        <v>2022.152</v>
+        <v>1495.5584</v>
       </c>
       <c r="E23" t="n">
-        <v>37.2466</v>
+        <v>36.1798</v>
       </c>
       <c r="F23" t="n">
-        <v>38.9543</v>
+        <v>38.4435</v>
       </c>
       <c r="G23" t="n">
-        <v>41.284</v>
+        <v>40.6806</v>
       </c>
       <c r="H23" t="n">
-        <v>666.623</v>
+        <v>668.3960000000001</v>
       </c>
     </row>
     <row r="24">
@@ -17815,26 +17815,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Traffic_2560x1600_30_crop_150_qp35(anchor)</t>
+          <t>Traffic_2560x1600_30_crop_150_qp38(anchor)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>150</v>
       </c>
       <c r="D24" t="n">
-        <v>949.8432</v>
+        <v>622.744</v>
       </c>
       <c r="E24" t="n">
-        <v>34.5002</v>
+        <v>32.8849</v>
       </c>
       <c r="F24" t="n">
-        <v>37.6245</v>
+        <v>36.7735</v>
       </c>
       <c r="G24" t="n">
-        <v>39.781</v>
+        <v>38.868</v>
       </c>
       <c r="H24" t="n">
-        <v>467.845</v>
+        <v>456.251</v>
       </c>
     </row>
     <row r="25">
@@ -17843,26 +17843,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Traffic_2560x1600_30_crop_150_qp40(anchor)</t>
+          <t>Traffic_2560x1600_30_crop_150_qp45(anchor)</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>150</v>
       </c>
       <c r="D25" t="n">
-        <v>483.2064</v>
+        <v>247.776</v>
       </c>
       <c r="E25" t="n">
-        <v>31.9851</v>
+        <v>29.5585</v>
       </c>
       <c r="F25" t="n">
-        <v>36.2475</v>
+        <v>35.5068</v>
       </c>
       <c r="G25" t="n">
-        <v>38.3268</v>
+        <v>37.6863</v>
       </c>
       <c r="H25" t="n">
-        <v>349.62</v>
+        <v>303.009</v>
       </c>
     </row>
     <row r="26">
@@ -17890,7 +17890,7 @@
         <v>42.9632</v>
       </c>
       <c r="H26" t="n">
-        <v>2758.27</v>
+        <v>3176.87</v>
       </c>
     </row>
     <row r="27">
@@ -17899,26 +17899,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BasketballDrive_1920x1080_50_500_qp30(anchor)</t>
+          <t>BasketballDrive_1920x1080_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>501</v>
       </c>
       <c r="D27" t="n">
-        <v>1616.9523</v>
+        <v>1194.5183</v>
       </c>
       <c r="E27" t="n">
-        <v>36.0431</v>
+        <v>35.2175</v>
       </c>
       <c r="F27" t="n">
-        <v>41.6948</v>
+        <v>41.1257</v>
       </c>
       <c r="G27" t="n">
-        <v>41.7157</v>
+        <v>40.8335</v>
       </c>
       <c r="H27" t="n">
-        <v>2100.34</v>
+        <v>2048.12</v>
       </c>
     </row>
     <row r="28">
@@ -17927,26 +17927,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BasketballDrive_1920x1080_50_500_qp35(anchor)</t>
+          <t>BasketballDrive_1920x1080_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>501</v>
       </c>
       <c r="D28" t="n">
-        <v>760.2913</v>
+        <v>503.3456</v>
       </c>
       <c r="E28" t="n">
-        <v>33.8802</v>
+        <v>32.5881</v>
       </c>
       <c r="F28" t="n">
-        <v>40.0907</v>
+        <v>39.1353</v>
       </c>
       <c r="G28" t="n">
-        <v>39.3124</v>
+        <v>37.9916</v>
       </c>
       <c r="H28" t="n">
-        <v>1362.48</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="29">
@@ -17955,26 +17955,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BasketballDrive_1920x1080_50_500_qp40(anchor)</t>
+          <t>BasketballDrive_1920x1080_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>501</v>
       </c>
       <c r="D29" t="n">
-        <v>397.3787</v>
+        <v>213.9028</v>
       </c>
       <c r="E29" t="n">
-        <v>31.8773</v>
+        <v>29.9184</v>
       </c>
       <c r="F29" t="n">
-        <v>38.5309</v>
+        <v>37.6099</v>
       </c>
       <c r="G29" t="n">
-        <v>37.253</v>
+        <v>36.0875</v>
       </c>
       <c r="H29" t="n">
-        <v>930.8480000000001</v>
+        <v>748.3380000000001</v>
       </c>
     </row>
     <row r="30">
@@ -18002,7 +18002,7 @@
         <v>43.3198</v>
       </c>
       <c r="H30" t="n">
-        <v>1855.33</v>
+        <v>2138.26</v>
       </c>
     </row>
     <row r="31">
@@ -18011,26 +18011,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BQTerrace_1920x1080_60_600_qp30(anchor)</t>
+          <t>BQTerrace_1920x1080_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>601</v>
       </c>
       <c r="D31" t="n">
-        <v>893.5991</v>
+        <v>619.1129</v>
       </c>
       <c r="E31" t="n">
-        <v>33.8201</v>
+        <v>33.1808</v>
       </c>
       <c r="F31" t="n">
-        <v>40.0942</v>
+        <v>39.6112</v>
       </c>
       <c r="G31" t="n">
-        <v>42.7077</v>
+        <v>42.2967</v>
       </c>
       <c r="H31" t="n">
-        <v>1344.31</v>
+        <v>1292.89</v>
       </c>
     </row>
     <row r="32">
@@ -18039,26 +18039,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BQTerrace_1920x1080_60_600_qp35(anchor)</t>
+          <t>BQTerrace_1920x1080_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>601</v>
       </c>
       <c r="D32" t="n">
-        <v>370.2449</v>
+        <v>233.857</v>
       </c>
       <c r="E32" t="n">
-        <v>32.0586</v>
+        <v>30.839</v>
       </c>
       <c r="F32" t="n">
-        <v>38.8832</v>
+        <v>38.1583</v>
       </c>
       <c r="G32" t="n">
-        <v>41.6648</v>
+        <v>41.0485</v>
       </c>
       <c r="H32" t="n">
-        <v>873.923</v>
+        <v>836.4060000000001</v>
       </c>
     </row>
     <row r="33">
@@ -18067,26 +18067,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BQTerrace_1920x1080_60_600_qp40(anchor)</t>
+          <t>BQTerrace_1920x1080_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>601</v>
       </c>
       <c r="D33" t="n">
-        <v>175.1996</v>
+        <v>88.7756</v>
       </c>
       <c r="E33" t="n">
-        <v>30.0223</v>
+        <v>28.046</v>
       </c>
       <c r="F33" t="n">
-        <v>37.6253</v>
+        <v>36.9545</v>
       </c>
       <c r="G33" t="n">
-        <v>40.5815</v>
+        <v>39.9339</v>
       </c>
       <c r="H33" t="n">
-        <v>628.009</v>
+        <v>507.641</v>
       </c>
     </row>
     <row r="34">
@@ -18114,7 +18114,7 @@
         <v>42.1171</v>
       </c>
       <c r="H34" t="n">
-        <v>2205.96</v>
+        <v>2536.24</v>
       </c>
     </row>
     <row r="35">
@@ -18123,26 +18123,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cactus_1920x1080_50_500_qp30(anchor)</t>
+          <t>Cactus_1920x1080_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>500</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.0667</v>
+        <v>1178.1634</v>
       </c>
       <c r="E35" t="n">
-        <v>35.607</v>
+        <v>34.7774</v>
       </c>
       <c r="F35" t="n">
-        <v>38.6512</v>
+        <v>38.2655</v>
       </c>
       <c r="G35" t="n">
-        <v>41.1074</v>
+        <v>40.4203</v>
       </c>
       <c r="H35" t="n">
-        <v>1699.29</v>
+        <v>1671.57</v>
       </c>
     </row>
     <row r="36">
@@ -18151,26 +18151,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cactus_1920x1080_50_500_qp35(anchor)</t>
+          <t>Cactus_1920x1080_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>500</v>
       </c>
       <c r="D36" t="n">
-        <v>748.2148999999999</v>
+        <v>489.9595</v>
       </c>
       <c r="E36" t="n">
-        <v>33.3654</v>
+        <v>31.9666</v>
       </c>
       <c r="F36" t="n">
-        <v>37.5515</v>
+        <v>36.8576</v>
       </c>
       <c r="G36" t="n">
-        <v>39.2536</v>
+        <v>38.2263</v>
       </c>
       <c r="H36" t="n">
-        <v>1127.4</v>
+        <v>1052.22</v>
       </c>
     </row>
     <row r="37">
@@ -18179,26 +18179,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cactus_1920x1080_50_500_qp40(anchor)</t>
+          <t>Cactus_1920x1080_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>500</v>
       </c>
       <c r="D37" t="n">
-        <v>376.0032</v>
+        <v>193.3104</v>
       </c>
       <c r="E37" t="n">
-        <v>31.1426</v>
+        <v>29.1537</v>
       </c>
       <c r="F37" t="n">
-        <v>36.3102</v>
+        <v>35.5067</v>
       </c>
       <c r="G37" t="n">
-        <v>37.444</v>
+        <v>36.2595</v>
       </c>
       <c r="H37" t="n">
-        <v>789.05</v>
+        <v>645.53</v>
       </c>
     </row>
     <row r="38">
@@ -18226,7 +18226,7 @@
         <v>44.0592</v>
       </c>
       <c r="H38" t="n">
-        <v>1202.68</v>
+        <v>1377.75</v>
       </c>
     </row>
     <row r="39">
@@ -18235,26 +18235,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kimono1_1920x1080_24_240_qp30(anchor)</t>
+          <t>Kimono1_1920x1080_24_240_qp32(anchor)</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>240</v>
       </c>
       <c r="D39" t="n">
-        <v>1778.488</v>
+        <v>1323.153</v>
       </c>
       <c r="E39" t="n">
-        <v>38.9936</v>
+        <v>38.0345</v>
       </c>
       <c r="F39" t="n">
-        <v>41.9251</v>
+        <v>41.4133</v>
       </c>
       <c r="G39" t="n">
-        <v>43.0413</v>
+        <v>42.4521</v>
       </c>
       <c r="H39" t="n">
-        <v>923.564</v>
+        <v>892.582</v>
       </c>
     </row>
     <row r="40">
@@ -18263,26 +18263,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kimono1_1920x1080_24_240_qp35(anchor)</t>
+          <t>Kimono1_1920x1080_24_240_qp38(anchor)</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>240</v>
       </c>
       <c r="D40" t="n">
-        <v>837.566</v>
+        <v>545.301</v>
       </c>
       <c r="E40" t="n">
-        <v>36.4792</v>
+        <v>35.0175</v>
       </c>
       <c r="F40" t="n">
-        <v>40.6596</v>
+        <v>39.9477</v>
       </c>
       <c r="G40" t="n">
-        <v>41.6787</v>
+        <v>41.0045</v>
       </c>
       <c r="H40" t="n">
-        <v>599.437</v>
+        <v>553.154</v>
       </c>
     </row>
     <row r="41">
@@ -18291,26 +18291,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kimono1_1920x1080_24_240_qp40(anchor)</t>
+          <t>Kimono1_1920x1080_24_240_qp45(anchor)</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>240</v>
       </c>
       <c r="D41" t="n">
-        <v>414.581</v>
+        <v>196.911</v>
       </c>
       <c r="E41" t="n">
-        <v>34.1346</v>
+        <v>31.8853</v>
       </c>
       <c r="F41" t="n">
-        <v>39.439</v>
+        <v>38.5311</v>
       </c>
       <c r="G41" t="n">
-        <v>40.5964</v>
+        <v>39.9582</v>
       </c>
       <c r="H41" t="n">
-        <v>413.952</v>
+        <v>324.344</v>
       </c>
     </row>
     <row r="42">
@@ -18338,7 +18338,7 @@
         <v>41.8785</v>
       </c>
       <c r="H42" t="n">
-        <v>1032</v>
+        <v>1111.11</v>
       </c>
     </row>
     <row r="43">
@@ -18347,26 +18347,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ParkScene_1920x1080_24_240_qp30(anchor)</t>
+          <t>ParkScene_1920x1080_24_240_qp32(anchor)</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>240</v>
       </c>
       <c r="D43" t="n">
-        <v>1854.239</v>
+        <v>1328.355</v>
       </c>
       <c r="E43" t="n">
-        <v>35.9122</v>
+        <v>34.8747</v>
       </c>
       <c r="F43" t="n">
-        <v>39.8746</v>
+        <v>39.2462</v>
       </c>
       <c r="G43" t="n">
-        <v>40.7364</v>
+        <v>40.1086</v>
       </c>
       <c r="H43" t="n">
-        <v>759.942</v>
+        <v>744.846</v>
       </c>
     </row>
     <row r="44">
@@ -18375,26 +18375,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ParkScene_1920x1080_24_240_qp35(anchor)</t>
+          <t>ParkScene_1920x1080_24_240_qp38(anchor)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>240</v>
       </c>
       <c r="D44" t="n">
-        <v>789.273</v>
+        <v>482.894</v>
       </c>
       <c r="E44" t="n">
-        <v>33.2903</v>
+        <v>31.8536</v>
       </c>
       <c r="F44" t="n">
-        <v>38.313</v>
+        <v>37.3718</v>
       </c>
       <c r="G44" t="n">
-        <v>39.3154</v>
+        <v>38.6748</v>
       </c>
       <c r="H44" t="n">
-        <v>509.144</v>
+        <v>480.223</v>
       </c>
     </row>
     <row r="45">
@@ -18403,26 +18403,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ParkScene_1920x1080_24_240_qp40(anchor)</t>
+          <t>ParkScene_1920x1080_24_240_qp45(anchor)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>240</v>
       </c>
       <c r="D45" t="n">
-        <v>354.152</v>
+        <v>159.842</v>
       </c>
       <c r="E45" t="n">
-        <v>31.009</v>
+        <v>29.0365</v>
       </c>
       <c r="F45" t="n">
-        <v>36.7684</v>
+        <v>35.9587</v>
       </c>
       <c r="G45" t="n">
-        <v>38.3195</v>
+        <v>37.8448</v>
       </c>
       <c r="H45" t="n">
-        <v>366.395</v>
+        <v>298.675</v>
       </c>
     </row>
     <row r="46">
@@ -18450,7 +18450,7 @@
         <v>41.9967</v>
       </c>
       <c r="H46" t="n">
-        <v>697.3910000000001</v>
+        <v>702.174</v>
       </c>
     </row>
     <row r="47">
@@ -18459,26 +18459,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BasketballDrill_832x480_50_500_qp30(anchor)</t>
+          <t>BasketballDrill_832x480_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>501</v>
       </c>
       <c r="D47" t="n">
-        <v>634.5049</v>
+        <v>471.9487</v>
       </c>
       <c r="E47" t="n">
-        <v>36.6413</v>
+        <v>35.4083</v>
       </c>
       <c r="F47" t="n">
-        <v>40.3594</v>
+        <v>39.3995</v>
       </c>
       <c r="G47" t="n">
-        <v>40.5519</v>
+        <v>39.5044</v>
       </c>
       <c r="H47" t="n">
-        <v>505.404</v>
+        <v>497.413</v>
       </c>
     </row>
     <row r="48">
@@ -18487,26 +18487,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BasketballDrill_832x480_50_500_qp35(anchor)</t>
+          <t>BasketballDrill_832x480_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>501</v>
       </c>
       <c r="D48" t="n">
-        <v>303.2125</v>
+        <v>200.6074</v>
       </c>
       <c r="E48" t="n">
-        <v>33.6387</v>
+        <v>32.0291</v>
       </c>
       <c r="F48" t="n">
-        <v>38.0867</v>
+        <v>36.8625</v>
       </c>
       <c r="G48" t="n">
-        <v>38.0118</v>
+        <v>36.6286</v>
       </c>
       <c r="H48" t="n">
-        <v>346.542</v>
+        <v>322.763</v>
       </c>
     </row>
     <row r="49">
@@ -18515,26 +18515,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BasketballDrill_832x480_50_500_qp40(anchor)</t>
+          <t>BasketballDrill_832x480_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>501</v>
       </c>
       <c r="D49" t="n">
-        <v>156.8263</v>
+        <v>81.60290000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>31.1211</v>
+        <v>29.0459</v>
       </c>
       <c r="F49" t="n">
-        <v>36.1442</v>
+        <v>34.8306</v>
       </c>
       <c r="G49" t="n">
-        <v>35.8214</v>
+        <v>34.2211</v>
       </c>
       <c r="H49" t="n">
-        <v>243.384</v>
+        <v>190.602</v>
       </c>
     </row>
     <row r="50">
@@ -18562,7 +18562,7 @@
         <v>43.5245</v>
       </c>
       <c r="H50" t="n">
-        <v>548.23</v>
+        <v>626.016</v>
       </c>
     </row>
     <row r="51">
@@ -18571,26 +18571,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BQMall_832x480_60_600_qp30(anchor)</t>
+          <t>BQMall_832x480_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>601</v>
       </c>
       <c r="D51" t="n">
-        <v>488.0745</v>
+        <v>370.0101</v>
       </c>
       <c r="E51" t="n">
-        <v>36.0175</v>
+        <v>34.8942</v>
       </c>
       <c r="F51" t="n">
-        <v>41.1418</v>
+        <v>40.4193</v>
       </c>
       <c r="G51" t="n">
-        <v>42.2176</v>
+        <v>41.349</v>
       </c>
       <c r="H51" t="n">
-        <v>437.361</v>
+        <v>435.149</v>
       </c>
     </row>
     <row r="52">
@@ -18599,26 +18599,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BQMall_832x480_60_600_qp35(anchor)</t>
+          <t>BQMall_832x480_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>601</v>
       </c>
       <c r="D52" t="n">
-        <v>240.6038</v>
+        <v>160.7054</v>
       </c>
       <c r="E52" t="n">
-        <v>33.1449</v>
+        <v>31.5097</v>
       </c>
       <c r="F52" t="n">
-        <v>39.2604</v>
+        <v>38.1074</v>
       </c>
       <c r="G52" t="n">
-        <v>40.0431</v>
+        <v>38.7176</v>
       </c>
       <c r="H52" t="n">
-        <v>302.412</v>
+        <v>287.518</v>
       </c>
     </row>
     <row r="53">
@@ -18627,26 +18627,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BQMall_832x480_60_600_qp40(anchor)</t>
+          <t>BQMall_832x480_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>601</v>
       </c>
       <c r="D53" t="n">
-        <v>124.3523</v>
+        <v>62.5394</v>
       </c>
       <c r="E53" t="n">
-        <v>30.5154</v>
+        <v>28.0657</v>
       </c>
       <c r="F53" t="n">
-        <v>37.3151</v>
+        <v>36.0282</v>
       </c>
       <c r="G53" t="n">
-        <v>37.8369</v>
+        <v>36.4497</v>
       </c>
       <c r="H53" t="n">
-        <v>217.848</v>
+        <v>177.745</v>
       </c>
     </row>
     <row r="54">
@@ -18674,7 +18674,7 @@
         <v>39.6134</v>
       </c>
       <c r="H54" t="n">
-        <v>578.492</v>
+        <v>661.9930000000001</v>
       </c>
     </row>
     <row r="55">
@@ -18683,26 +18683,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PartyScene_832x480_50_500_qp30(anchor)</t>
+          <t>PartyScene_832x480_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>501</v>
       </c>
       <c r="D55" t="n">
-        <v>804.0493</v>
+        <v>577.8711</v>
       </c>
       <c r="E55" t="n">
-        <v>31.8711</v>
+        <v>30.6355</v>
       </c>
       <c r="F55" t="n">
-        <v>37.3694</v>
+        <v>36.6289</v>
       </c>
       <c r="G55" t="n">
-        <v>38.2865</v>
+        <v>37.4873</v>
       </c>
       <c r="H55" t="n">
-        <v>455.136</v>
+        <v>444.085</v>
       </c>
     </row>
     <row r="56">
@@ -18711,26 +18711,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PartyScene_832x480_50_500_qp35(anchor)</t>
+          <t>PartyScene_832x480_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>501</v>
       </c>
       <c r="D56" t="n">
-        <v>341.0319</v>
+        <v>203.5296</v>
       </c>
       <c r="E56" t="n">
-        <v>28.8178</v>
+        <v>27.1619</v>
       </c>
       <c r="F56" t="n">
-        <v>35.5156</v>
+        <v>34.4325</v>
       </c>
       <c r="G56" t="n">
-        <v>36.258</v>
+        <v>35.0864</v>
       </c>
       <c r="H56" t="n">
-        <v>299.073</v>
+        <v>274.71</v>
       </c>
     </row>
     <row r="57">
@@ -18739,26 +18739,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PartyScene_832x480_50_500_qp40(anchor)</t>
+          <t>PartyScene_832x480_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>501</v>
       </c>
       <c r="D57" t="n">
-        <v>143.8295</v>
+        <v>56.5624</v>
       </c>
       <c r="E57" t="n">
-        <v>26.151</v>
+        <v>23.9636</v>
       </c>
       <c r="F57" t="n">
-        <v>33.7075</v>
+        <v>32.6983</v>
       </c>
       <c r="G57" t="n">
-        <v>34.3213</v>
+        <v>33.3212</v>
       </c>
       <c r="H57" t="n">
-        <v>205.516</v>
+        <v>161.823</v>
       </c>
     </row>
     <row r="58">
@@ -18786,7 +18786,7 @@
         <v>40.8025</v>
       </c>
       <c r="H58" t="n">
-        <v>509.088</v>
+        <v>582.73</v>
       </c>
     </row>
     <row r="59">
@@ -18795,26 +18795,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RaceHorses_832x480_30_300_qp30(anchor)</t>
+          <t>RaceHorses_832x480_30_300_qp32(anchor)</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>1095.8792</v>
+        <v>801.3008</v>
       </c>
       <c r="E59" t="n">
-        <v>33.8756</v>
+        <v>32.7048</v>
       </c>
       <c r="F59" t="n">
-        <v>37.7102</v>
+        <v>36.907</v>
       </c>
       <c r="G59" t="n">
-        <v>39.531</v>
+        <v>38.7244</v>
       </c>
       <c r="H59" t="n">
-        <v>408.291</v>
+        <v>403.494</v>
       </c>
     </row>
     <row r="60">
@@ -18823,26 +18823,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RaceHorses_832x480_30_300_qp35(anchor)</t>
+          <t>RaceHorses_832x480_30_300_qp38(anchor)</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>300</v>
       </c>
       <c r="D60" t="n">
-        <v>489.2016</v>
+        <v>306.192</v>
       </c>
       <c r="E60" t="n">
-        <v>30.9183</v>
+        <v>29.3391</v>
       </c>
       <c r="F60" t="n">
-        <v>35.6925</v>
+        <v>34.6049</v>
       </c>
       <c r="G60" t="n">
-        <v>37.4351</v>
+        <v>36.215</v>
       </c>
       <c r="H60" t="n">
-        <v>275.771</v>
+        <v>253.494</v>
       </c>
     </row>
     <row r="61">
@@ -18851,26 +18851,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RaceHorses_832x480_30_300_qp40(anchor)</t>
+          <t>RaceHorses_832x480_30_300_qp45(anchor)</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>300</v>
       </c>
       <c r="D61" t="n">
-        <v>225.9416</v>
+        <v>101.9872</v>
       </c>
       <c r="E61" t="n">
-        <v>28.5189</v>
+        <v>26.5564</v>
       </c>
       <c r="F61" t="n">
-        <v>33.9362</v>
+        <v>32.8205</v>
       </c>
       <c r="G61" t="n">
-        <v>35.4358</v>
+        <v>34.0255</v>
       </c>
       <c r="H61" t="n">
-        <v>185.647</v>
+        <v>137.946</v>
       </c>
     </row>
     <row r="62">
@@ -18898,7 +18898,7 @@
         <v>41.4224</v>
       </c>
       <c r="H62" t="n">
-        <v>194.693</v>
+        <v>224.077</v>
       </c>
     </row>
     <row r="63">
@@ -18907,26 +18907,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BasketballPass_416x240_50_500_qp30(anchor)</t>
+          <t>BasketballPass_416x240_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>501</v>
       </c>
       <c r="D63" t="n">
-        <v>355.8156</v>
+        <v>265.8596</v>
       </c>
       <c r="E63" t="n">
-        <v>36.2459</v>
+        <v>34.8506</v>
       </c>
       <c r="F63" t="n">
-        <v>41.1782</v>
+        <v>40.3066</v>
       </c>
       <c r="G63" t="n">
-        <v>39.7141</v>
+        <v>38.6363</v>
       </c>
       <c r="H63" t="n">
-        <v>164.586</v>
+        <v>166.252</v>
       </c>
     </row>
     <row r="64">
@@ -18935,26 +18935,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BasketballPass_416x240_50_500_qp35(anchor)</t>
+          <t>BasketballPass_416x240_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>501</v>
       </c>
       <c r="D64" t="n">
-        <v>170.3401</v>
+        <v>110.868</v>
       </c>
       <c r="E64" t="n">
-        <v>32.8928</v>
+        <v>31.149</v>
       </c>
       <c r="F64" t="n">
-        <v>38.8501</v>
+        <v>37.5889</v>
       </c>
       <c r="G64" t="n">
-        <v>36.9461</v>
+        <v>35.4154</v>
       </c>
       <c r="H64" t="n">
-        <v>117.367</v>
+        <v>109.244</v>
       </c>
     </row>
     <row r="65">
@@ -18963,26 +18963,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BasketballPass_416x240_50_500_qp40(anchor)</t>
+          <t>BasketballPass_416x240_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>501</v>
       </c>
       <c r="D65" t="n">
-        <v>84.8819</v>
+        <v>42.6084</v>
       </c>
       <c r="E65" t="n">
-        <v>30.1528</v>
+        <v>27.7997</v>
       </c>
       <c r="F65" t="n">
-        <v>36.7332</v>
+        <v>37.3432</v>
       </c>
       <c r="G65" t="n">
-        <v>34.5203</v>
+        <v>34.8971</v>
       </c>
       <c r="H65" t="n">
-        <v>82.00399999999999</v>
+        <v>64.706</v>
       </c>
     </row>
     <row r="66">
@@ -19010,7 +19010,7 @@
         <v>40.2387</v>
       </c>
       <c r="H66" t="n">
-        <v>148.028</v>
+        <v>170.037</v>
       </c>
     </row>
     <row r="67">
@@ -19019,26 +19019,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BlowingBubbles_416x240_50_500_qp30(anchor)</t>
+          <t>BlowingBubbles_416x240_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>501</v>
       </c>
       <c r="D67" t="n">
-        <v>261.8587</v>
+        <v>190.376</v>
       </c>
       <c r="E67" t="n">
-        <v>33.1628</v>
+        <v>31.9211</v>
       </c>
       <c r="F67" t="n">
-        <v>37.9065</v>
+        <v>37.0123</v>
       </c>
       <c r="G67" t="n">
-        <v>38.8274</v>
+        <v>37.8859</v>
       </c>
       <c r="H67" t="n">
-        <v>118.031</v>
+        <v>115.554</v>
       </c>
     </row>
     <row r="68">
@@ -19047,26 +19047,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BlowingBubbles_416x240_50_500_qp35(anchor)</t>
+          <t>BlowingBubbles_416x240_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>501</v>
       </c>
       <c r="D68" t="n">
-        <v>114.321</v>
+        <v>69.57170000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>30.0804</v>
+        <v>28.4267</v>
       </c>
       <c r="F68" t="n">
-        <v>35.757</v>
+        <v>34.5165</v>
       </c>
       <c r="G68" t="n">
-        <v>36.5659</v>
+        <v>35.3304</v>
       </c>
       <c r="H68" t="n">
-        <v>78.55800000000001</v>
+        <v>71.199</v>
       </c>
     </row>
     <row r="69">
@@ -19075,26 +19075,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BlowingBubbles_416x240_50_500_qp40(anchor)</t>
+          <t>BlowingBubbles_416x240_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>501</v>
       </c>
       <c r="D69" t="n">
-        <v>49.3988</v>
+        <v>21.6613</v>
       </c>
       <c r="E69" t="n">
-        <v>27.3893</v>
+        <v>25.0999</v>
       </c>
       <c r="F69" t="n">
-        <v>33.725</v>
+        <v>34.2857</v>
       </c>
       <c r="G69" t="n">
-        <v>34.5785</v>
+        <v>35.0885</v>
       </c>
       <c r="H69" t="n">
-        <v>52.16</v>
+        <v>41.898</v>
       </c>
     </row>
     <row r="70">
@@ -19122,7 +19122,7 @@
         <v>42.6452</v>
       </c>
       <c r="H70" t="n">
-        <v>118.21</v>
+        <v>136.349</v>
       </c>
     </row>
     <row r="71">
@@ -19131,26 +19131,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BQSquare_416x240_60_600_qp30(anchor)</t>
+          <t>BQSquare_416x240_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>601</v>
       </c>
       <c r="D71" t="n">
-        <v>150.9241</v>
+        <v>109.8972</v>
       </c>
       <c r="E71" t="n">
-        <v>32.5251</v>
+        <v>31.405</v>
       </c>
       <c r="F71" t="n">
-        <v>40.3289</v>
+        <v>39.647</v>
       </c>
       <c r="G71" t="n">
-        <v>41.5675</v>
+        <v>40.8539</v>
       </c>
       <c r="H71" t="n">
-        <v>89.708</v>
+        <v>87.56999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -19159,26 +19159,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BQSquare_416x240_60_600_qp35(anchor)</t>
+          <t>BQSquare_416x240_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>601</v>
       </c>
       <c r="D72" t="n">
-        <v>69.30410000000001</v>
+        <v>46.1183</v>
       </c>
       <c r="E72" t="n">
-        <v>29.7417</v>
+        <v>28.1471</v>
       </c>
       <c r="F72" t="n">
-        <v>38.7642</v>
+        <v>38.0279</v>
       </c>
       <c r="G72" t="n">
-        <v>39.7936</v>
+        <v>38.8151</v>
       </c>
       <c r="H72" t="n">
-        <v>59.397</v>
+        <v>55.653</v>
       </c>
     </row>
     <row r="73">
@@ -19187,26 +19187,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BQSquare_416x240_60_600_qp40(anchor)</t>
+          <t>BQSquare_416x240_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>601</v>
       </c>
       <c r="D73" t="n">
-        <v>35.0328</v>
+        <v>18.3414</v>
       </c>
       <c r="E73" t="n">
-        <v>27.0451</v>
+        <v>24.4883</v>
       </c>
       <c r="F73" t="n">
-        <v>37.5789</v>
+        <v>38.3883</v>
       </c>
       <c r="G73" t="n">
-        <v>38.1231</v>
+        <v>38.7577</v>
       </c>
       <c r="H73" t="n">
-        <v>42.2</v>
+        <v>37.097</v>
       </c>
     </row>
     <row r="74">
@@ -19234,7 +19234,7 @@
         <v>40.7182</v>
       </c>
       <c r="H74" t="n">
-        <v>137.245</v>
+        <v>157.425</v>
       </c>
     </row>
     <row r="75">
@@ -19243,26 +19243,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RaceHorses_416x240_30_300_qp30(anchor)</t>
+          <t>RaceHorses_416x240_30_300_qp32(anchor)</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>300</v>
       </c>
       <c r="D75" t="n">
-        <v>410.1952</v>
+        <v>304.3672</v>
       </c>
       <c r="E75" t="n">
-        <v>34.3646</v>
+        <v>32.9814</v>
       </c>
       <c r="F75" t="n">
-        <v>37.9263</v>
+        <v>37.0269</v>
       </c>
       <c r="G75" t="n">
-        <v>39.2396</v>
+        <v>38.2917</v>
       </c>
       <c r="H75" t="n">
-        <v>114.206</v>
+        <v>114.739</v>
       </c>
     </row>
     <row r="76">
@@ -19271,26 +19271,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RaceHorses_416x240_30_300_qp35(anchor)</t>
+          <t>RaceHorses_416x240_30_300_qp38(anchor)</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>300</v>
       </c>
       <c r="D76" t="n">
-        <v>190.492</v>
+        <v>121.8472</v>
       </c>
       <c r="E76" t="n">
-        <v>31.0158</v>
+        <v>29.3513</v>
       </c>
       <c r="F76" t="n">
-        <v>35.6975</v>
+        <v>34.4225</v>
       </c>
       <c r="G76" t="n">
-        <v>36.8489</v>
+        <v>35.4764</v>
       </c>
       <c r="H76" t="n">
-        <v>79.48699999999999</v>
+        <v>72.187</v>
       </c>
     </row>
     <row r="77">
@@ -19299,26 +19299,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RaceHorses_416x240_30_300_qp40(anchor)</t>
+          <t>RaceHorses_416x240_30_300_qp45(anchor)</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>300</v>
       </c>
       <c r="D77" t="n">
-        <v>91.452</v>
+        <v>43.7768</v>
       </c>
       <c r="E77" t="n">
-        <v>28.4607</v>
+        <v>26.3272</v>
       </c>
       <c r="F77" t="n">
-        <v>33.684</v>
+        <v>32.2317</v>
       </c>
       <c r="G77" t="n">
-        <v>34.6436</v>
+        <v>33.1005</v>
       </c>
       <c r="H77" t="n">
-        <v>52.73699999999999</v>
+        <v>39.273</v>
       </c>
     </row>
     <row r="78">
@@ -19346,7 +19346,7 @@
         <v>48.0293</v>
       </c>
       <c r="H78" t="n">
-        <v>657.1460000000001</v>
+        <v>745.747</v>
       </c>
     </row>
     <row r="79">
@@ -19355,26 +19355,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FourPeople_1280x720_60_600_qp30(anchor)</t>
+          <t>FourPeople_1280x720_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>600</v>
       </c>
       <c r="D79" t="n">
-        <v>375.0084</v>
+        <v>289.3412</v>
       </c>
       <c r="E79" t="n">
-        <v>40.6789</v>
+        <v>39.7596</v>
       </c>
       <c r="F79" t="n">
-        <v>45.589</v>
+        <v>44.8454</v>
       </c>
       <c r="G79" t="n">
-        <v>46.9702</v>
+        <v>46.2133</v>
       </c>
       <c r="H79" t="n">
-        <v>494.351</v>
+        <v>497.839</v>
       </c>
     </row>
     <row r="80">
@@ -19383,26 +19383,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FourPeople_1280x720_60_600_qp35(anchor)</t>
+          <t>FourPeople_1280x720_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>600</v>
       </c>
       <c r="D80" t="n">
-        <v>197.0784</v>
+        <v>137.9332</v>
       </c>
       <c r="E80" t="n">
-        <v>38.1947</v>
+        <v>36.537</v>
       </c>
       <c r="F80" t="n">
-        <v>43.7566</v>
+        <v>42.6059</v>
       </c>
       <c r="G80" t="n">
-        <v>45.0523</v>
+        <v>43.768</v>
       </c>
       <c r="H80" t="n">
-        <v>351.093</v>
+        <v>343.338</v>
       </c>
     </row>
     <row r="81">
@@ -19411,26 +19411,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FourPeople_1280x720_60_600_qp40(anchor)</t>
+          <t>FourPeople_1280x720_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>600</v>
       </c>
       <c r="D81" t="n">
-        <v>111.9432</v>
+        <v>65.6896</v>
       </c>
       <c r="E81" t="n">
-        <v>35.5279</v>
+        <v>33.1763</v>
       </c>
       <c r="F81" t="n">
-        <v>41.8945</v>
+        <v>40.5654</v>
       </c>
       <c r="G81" t="n">
-        <v>43.0511</v>
+        <v>41.5907</v>
       </c>
       <c r="H81" t="n">
-        <v>266.115</v>
+        <v>231.217</v>
       </c>
     </row>
     <row r="82">
@@ -19458,7 +19458,7 @@
         <v>49.2</v>
       </c>
       <c r="H82" t="n">
-        <v>562.51</v>
+        <v>638.246</v>
       </c>
     </row>
     <row r="83">
@@ -19467,26 +19467,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Johnny_1280x720_60_600_qp30(anchor)</t>
+          <t>Johnny_1280x720_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>600</v>
       </c>
       <c r="D83" t="n">
-        <v>201.8808</v>
+        <v>149.51</v>
       </c>
       <c r="E83" t="n">
-        <v>41.6603</v>
+        <v>41.0202</v>
       </c>
       <c r="F83" t="n">
-        <v>47.5952</v>
+        <v>46.9655</v>
       </c>
       <c r="G83" t="n">
-        <v>48.3899</v>
+        <v>47.7568</v>
       </c>
       <c r="H83" t="n">
-        <v>399.804</v>
+        <v>397.793</v>
       </c>
     </row>
     <row r="84">
@@ -19495,26 +19495,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Johnny_1280x720_60_600_qp35(anchor)</t>
+          <t>Johnny_1280x720_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>600</v>
       </c>
       <c r="D84" t="n">
-        <v>98.8612</v>
+        <v>68.5476</v>
       </c>
       <c r="E84" t="n">
-        <v>39.882</v>
+        <v>38.6354</v>
       </c>
       <c r="F84" t="n">
-        <v>45.8933</v>
+        <v>44.694</v>
       </c>
       <c r="G84" t="n">
-        <v>46.6636</v>
+        <v>45.4848</v>
       </c>
       <c r="H84" t="n">
-        <v>268.882</v>
+        <v>259.783</v>
       </c>
     </row>
     <row r="85">
@@ -19523,26 +19523,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Johnny_1280x720_60_600_qp40(anchor)</t>
+          <t>Johnny_1280x720_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>600</v>
       </c>
       <c r="D85" t="n">
-        <v>54.9268</v>
+        <v>33.4524</v>
       </c>
       <c r="E85" t="n">
-        <v>37.7771</v>
+        <v>35.8452</v>
       </c>
       <c r="F85" t="n">
-        <v>43.9263</v>
+        <v>42.5175</v>
       </c>
       <c r="G85" t="n">
-        <v>44.6089</v>
+        <v>43.3303</v>
       </c>
       <c r="H85" t="n">
-        <v>188.585</v>
+        <v>161.72</v>
       </c>
     </row>
     <row r="86">
@@ -19570,7 +19570,7 @@
         <v>48.5403</v>
       </c>
       <c r="H86" t="n">
-        <v>724.758</v>
+        <v>823.725</v>
       </c>
     </row>
     <row r="87">
@@ -19579,26 +19579,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KristenAndSara_1280x720_60_600_qp30(anchor)</t>
+          <t>KristenAndSara_1280x720_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>600</v>
       </c>
       <c r="D87" t="n">
-        <v>339.6588</v>
+        <v>252.496</v>
       </c>
       <c r="E87" t="n">
-        <v>41.6233</v>
+        <v>40.8247</v>
       </c>
       <c r="F87" t="n">
-        <v>46.5742</v>
+        <v>45.8834</v>
       </c>
       <c r="G87" t="n">
-        <v>47.6099</v>
+        <v>46.9324</v>
       </c>
       <c r="H87" t="n">
-        <v>522.9159999999999</v>
+        <v>520.476</v>
       </c>
     </row>
     <row r="88">
@@ -19607,26 +19607,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KristenAndSara_1280x720_60_600_qp35(anchor)</t>
+          <t>KristenAndSara_1280x720_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>600</v>
       </c>
       <c r="D88" t="n">
-        <v>163.8372</v>
+        <v>112.3028</v>
       </c>
       <c r="E88" t="n">
-        <v>39.426</v>
+        <v>37.9578</v>
       </c>
       <c r="F88" t="n">
-        <v>44.7523</v>
+        <v>43.6896</v>
       </c>
       <c r="G88" t="n">
-        <v>45.8453</v>
+        <v>44.7151</v>
       </c>
       <c r="H88" t="n">
-        <v>353.313</v>
+        <v>341.481</v>
       </c>
     </row>
     <row r="89">
@@ -19635,26 +19635,26 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KristenAndSara_1280x720_60_600_qp40(anchor)</t>
+          <t>KristenAndSara_1280x720_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>600</v>
       </c>
       <c r="D89" t="n">
-        <v>88.7016</v>
+        <v>49.892</v>
       </c>
       <c r="E89" t="n">
-        <v>37.0134</v>
+        <v>34.9823</v>
       </c>
       <c r="F89" t="n">
-        <v>42.9493</v>
+        <v>41.5255</v>
       </c>
       <c r="G89" t="n">
-        <v>44.0341</v>
+        <v>42.5432</v>
       </c>
       <c r="H89" t="n">
-        <v>255.766</v>
+        <v>205.602</v>
       </c>
     </row>
     <row r="90">
@@ -19682,7 +19682,7 @@
         <v>41.3324</v>
       </c>
       <c r="H90" t="n">
-        <v>605.933</v>
+        <v>669.4839999999999</v>
       </c>
     </row>
     <row r="91">
@@ -19691,26 +19691,26 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BasketballDrillText_832x480_50_500_qp30(anchor)</t>
+          <t>BasketballDrillText_832x480_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>501</v>
       </c>
       <c r="D91" t="n">
-        <v>628.845</v>
+        <v>472.3875</v>
       </c>
       <c r="E91" t="n">
-        <v>36.234</v>
+        <v>34.9713</v>
       </c>
       <c r="F91" t="n">
-        <v>39.4809</v>
+        <v>38.4702</v>
       </c>
       <c r="G91" t="n">
-        <v>39.675</v>
+        <v>38.6191</v>
       </c>
       <c r="H91" t="n">
-        <v>483.398</v>
+        <v>475.191</v>
       </c>
     </row>
     <row r="92">
@@ -19719,26 +19719,26 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BasketballDrillText_832x480_50_500_qp35(anchor)</t>
+          <t>BasketballDrillText_832x480_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>501</v>
       </c>
       <c r="D92" t="n">
-        <v>305.7365</v>
+        <v>203.1195</v>
       </c>
       <c r="E92" t="n">
-        <v>33.1334</v>
+        <v>31.4448</v>
       </c>
       <c r="F92" t="n">
-        <v>37.051</v>
+        <v>35.6955</v>
       </c>
       <c r="G92" t="n">
-        <v>37.0433</v>
+        <v>35.5547</v>
       </c>
       <c r="H92" t="n">
-        <v>330.89</v>
+        <v>311.284</v>
       </c>
     </row>
     <row r="93">
@@ -19747,26 +19747,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BasketballDrillText_832x480_50_500_qp40(anchor)</t>
+          <t>BasketballDrillText_832x480_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>501</v>
       </c>
       <c r="D93" t="n">
-        <v>157.4889</v>
+        <v>81.1478</v>
       </c>
       <c r="E93" t="n">
-        <v>30.453</v>
+        <v>28.2024</v>
       </c>
       <c r="F93" t="n">
-        <v>34.8941</v>
+        <v>33.5335</v>
       </c>
       <c r="G93" t="n">
-        <v>34.6851</v>
+        <v>33.1114</v>
       </c>
       <c r="H93" t="n">
-        <v>233.535</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="94">
@@ -19775,7 +19775,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>﻿ChinaSpeed_1024x768_30_300_qp27(anchor)</t>
+          <t>﻿ChinaSpeed_1024x768_30_500_qp27(anchor)</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -19794,7 +19794,7 @@
         <v>42.7698</v>
       </c>
       <c r="H94" t="n">
-        <v>1204.81</v>
+        <v>1380.27</v>
       </c>
     </row>
     <row r="95">
@@ -19803,26 +19803,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ChinaSpeed_1024x768_30_300_qp30(anchor)</t>
+          <t>ChinaSpeed_1024x768_30_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>500</v>
       </c>
       <c r="D95" t="n">
-        <v>1574.2546</v>
+        <v>1122.8136</v>
       </c>
       <c r="E95" t="n">
-        <v>35.6632</v>
+        <v>34.169</v>
       </c>
       <c r="F95" t="n">
-        <v>42.003</v>
+        <v>41.1179</v>
       </c>
       <c r="G95" t="n">
-        <v>40.9001</v>
+        <v>39.7357</v>
       </c>
       <c r="H95" t="n">
-        <v>965.602</v>
+        <v>932.3539999999999</v>
       </c>
     </row>
     <row r="96">
@@ -19831,26 +19831,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ChinaSpeed_1024x768_30_300_qp35(anchor)</t>
+          <t>ChinaSpeed_1024x768_30_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>500</v>
       </c>
       <c r="D96" t="n">
-        <v>653.1935999999999</v>
+        <v>388.4544</v>
       </c>
       <c r="E96" t="n">
-        <v>32.053</v>
+        <v>30.2294</v>
       </c>
       <c r="F96" t="n">
-        <v>39.7002</v>
+        <v>38.4251</v>
       </c>
       <c r="G96" t="n">
-        <v>38.0473</v>
+        <v>36.7046</v>
       </c>
       <c r="H96" t="n">
-        <v>659.373</v>
+        <v>568.5980000000001</v>
       </c>
     </row>
     <row r="97">
@@ -19859,26 +19859,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ChinaSpeed_1024x768_30_300_qp40(anchor)</t>
+          <t>ChinaSpeed_1024x768_30_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>500</v>
       </c>
       <c r="D97" t="n">
-        <v>276.2923</v>
+        <v>120.2525</v>
       </c>
       <c r="E97" t="n">
-        <v>29.172</v>
+        <v>27.2153</v>
       </c>
       <c r="F97" t="n">
-        <v>37.5825</v>
+        <v>36.1769</v>
       </c>
       <c r="G97" t="n">
-        <v>35.6925</v>
+        <v>34.7849</v>
       </c>
       <c r="H97" t="n">
-        <v>445.979</v>
+        <v>310.159</v>
       </c>
     </row>
     <row r="98">
@@ -19906,7 +19906,7 @@
         <v>41.046</v>
       </c>
       <c r="H98" t="n">
-        <v>167.27</v>
+        <v>178.602</v>
       </c>
     </row>
     <row r="99">
@@ -19915,26 +19915,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SlideEditing_1280x720_30_300_qp30(anchor)</t>
+          <t>SlideEditing_1280x720_30_300_qp32(anchor)</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>300</v>
       </c>
       <c r="D99" t="n">
-        <v>369.54</v>
+        <v>321.2896</v>
       </c>
       <c r="E99" t="n">
-        <v>36.9293</v>
+        <v>34.9323</v>
       </c>
       <c r="F99" t="n">
-        <v>38.9575</v>
+        <v>38.4281</v>
       </c>
       <c r="G99" t="n">
-        <v>40.0419</v>
+        <v>39.5126</v>
       </c>
       <c r="H99" t="n">
-        <v>160.153</v>
+        <v>157.153</v>
       </c>
     </row>
     <row r="100">
@@ -19943,26 +19943,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SlideEditing_1280x720_30_300_qp35(anchor)</t>
+          <t>SlideEditing_1280x720_30_300_qp38(anchor)</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>300</v>
       </c>
       <c r="D100" t="n">
-        <v>248.0816</v>
+        <v>186.1456</v>
       </c>
       <c r="E100" t="n">
-        <v>31.8396</v>
+        <v>28.8446</v>
       </c>
       <c r="F100" t="n">
-        <v>37.6892</v>
+        <v>36.6409</v>
       </c>
       <c r="G100" t="n">
-        <v>38.5219</v>
+        <v>37.0119</v>
       </c>
       <c r="H100" t="n">
-        <v>142.171</v>
+        <v>136.632</v>
       </c>
     </row>
     <row r="101">
@@ -19971,26 +19971,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SlideEditing_1280x720_30_300_qp40(anchor)</t>
+          <t>SlideEditing_1280x720_30_300_qp45(anchor)</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>300</v>
       </c>
       <c r="D101" t="n">
-        <v>151.588</v>
+        <v>78.548</v>
       </c>
       <c r="E101" t="n">
-        <v>26.9241</v>
+        <v>22.9014</v>
       </c>
       <c r="F101" t="n">
-        <v>36.0276</v>
+        <v>34.6839</v>
       </c>
       <c r="G101" t="n">
-        <v>36.2326</v>
+        <v>34.6614</v>
       </c>
       <c r="H101" t="n">
-        <v>116.052</v>
+        <v>111.877</v>
       </c>
     </row>
     <row r="102">
@@ -20018,7 +20018,7 @@
         <v>52.5463</v>
       </c>
       <c r="H102" t="n">
-        <v>376.571</v>
+        <v>397.828</v>
       </c>
     </row>
     <row r="103">
@@ -20027,26 +20027,26 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SlideShow_1280x720_20_500_qp30(anchor)</t>
+          <t>SlideShow_1280x720_20_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>500</v>
       </c>
       <c r="D103" t="n">
-        <v>398.3328</v>
+        <v>323.5949</v>
       </c>
       <c r="E103" t="n">
-        <v>44.5316</v>
+        <v>42.9492</v>
       </c>
       <c r="F103" t="n">
-        <v>49.5521</v>
+        <v>48.3863</v>
       </c>
       <c r="G103" t="n">
-        <v>50.9839</v>
+        <v>49.8859</v>
       </c>
       <c r="H103" t="n">
-        <v>338.506</v>
+        <v>323.61</v>
       </c>
     </row>
     <row r="104">
@@ -20055,26 +20055,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SlideShow_1280x720_20_500_qp35(anchor)</t>
+          <t>SlideShow_1280x720_20_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>500</v>
       </c>
       <c r="D104" t="n">
-        <v>237.6456</v>
+        <v>176.5277</v>
       </c>
       <c r="E104" t="n">
-        <v>40.5795</v>
+        <v>38.2846</v>
       </c>
       <c r="F104" t="n">
-        <v>46.83</v>
+        <v>45.3548</v>
       </c>
       <c r="G104" t="n">
-        <v>48.4895</v>
+        <v>47.1337</v>
       </c>
       <c r="H104" t="n">
-        <v>274.34</v>
+        <v>262.049</v>
       </c>
     </row>
     <row r="105">
@@ -20083,26 +20083,26 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SlideShow_1280x720_20_500_qp40(anchor)</t>
+          <t>SlideShow_1280x720_20_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>500</v>
       </c>
       <c r="D105" t="n">
-        <v>150.2357</v>
+        <v>99.9466</v>
       </c>
       <c r="E105" t="n">
-        <v>37.3024</v>
+        <v>35.0196</v>
       </c>
       <c r="F105" t="n">
-        <v>44.4312</v>
+        <v>42.524</v>
       </c>
       <c r="G105" t="n">
-        <v>46.4066</v>
+        <v>44.8239</v>
       </c>
       <c r="H105" t="n">
-        <v>213.501</v>
+        <v>207.001</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e_vs._vvenc.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e_vs._vvenc.xlsx
@@ -224,6 +224,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="30"/>
         </scaling>
         <axPos val="l"/>
@@ -238,32 +264,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -434,6 +434,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="29"/>
         </scaling>
         <axPos val="l"/>
@@ -448,32 +474,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -644,6 +644,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -658,32 +684,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -854,6 +854,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -868,32 +894,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1064,6 +1064,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -1078,32 +1104,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1274,6 +1274,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -1288,32 +1314,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1484,6 +1484,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -1498,32 +1524,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1694,6 +1694,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -1708,32 +1734,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1904,6 +1904,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -1918,32 +1944,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2114,6 +2114,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="22"/>
         </scaling>
         <axPos val="l"/>
@@ -2128,32 +2154,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2324,6 +2324,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -2338,32 +2364,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2534,6 +2534,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -2548,32 +2574,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2744,6 +2744,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -2758,32 +2784,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2954,6 +2954,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="32"/>
         </scaling>
         <axPos val="l"/>
@@ -2968,32 +2994,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3164,6 +3164,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -3178,32 +3204,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3374,6 +3374,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -3388,32 +3414,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3584,6 +3584,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -3598,32 +3624,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3794,6 +3794,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -3808,32 +3834,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4004,6 +4004,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="30"/>
         </scaling>
         <axPos val="l"/>
@@ -4018,32 +4044,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4214,6 +4214,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -4228,32 +4254,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4424,6 +4424,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="30"/>
         </scaling>
         <axPos val="l"/>
@@ -4438,32 +4464,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4634,6 +4634,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -4648,32 +4674,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4844,6 +4844,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -4858,32 +4884,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -5054,6 +5054,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -5068,32 +5094,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -5264,6 +5264,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -5278,32 +5304,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -5474,6 +5474,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -5488,32 +5514,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
